--- a/inCsvMaker.xlsx
+++ b/inCsvMaker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\笠松\ドキュメント\VS2017\ReadWS2812Signal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1871DC9B-13BA-480F-8361-1CB77E0EEDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67797A-4B17-4A9D-88A9-ADF5134B7AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21D569DD-8E27-4947-BF6A-D1849C44C007}"/>
   </bookViews>
@@ -465,7 +465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7164C88A-CF5D-4058-A0FA-FF9D78F35BA4}">
   <dimension ref="A1:S319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
